--- a/planilha_nomes_aleatorios.xlsx
+++ b/planilha_nomes_aleatorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,70 +443,245 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Júlia Souza Santos</t>
+          <t>Mariana Almeida Martins</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bruno Fernandes Carvalho</t>
+          <t>Maria Almeida Lima</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Giovana Almeida Nunes</t>
+          <t>Júlia Rocha Pereira</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eduarda Costa Oliveira</t>
+          <t>Felipe Silva Mendes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eduardo Fernandes Almeida</t>
+          <t>Pedro Nunes Oliveira</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mariana Costa Santos</t>
+          <t>Felipe Nunes Santos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Larissa Martins Carvalho</t>
+          <t>Ana Mendes Castro</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gabriel Santos Martins</t>
+          <t>Laura Castro Carvalho</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Beatriz Carvalho Costa</t>
+          <t>Gustavo Nunes Oliveira</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Larissa Miranda Fernandes</t>
+          <t>Bruno Rodrigues Nunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Maria Souza Mendes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Júlia Silva Rodrigues</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gabriel Martins Cardoso</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eduardo Lima Costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gabriel Oliveira Nunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Eduarda Pereira Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bruno Nunes Miranda</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Eduardo Costa Rocha</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Matheus Miranda Rocha</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ana Nunes Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Matheus Nunes Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mariana Costa Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Laura Nunes Costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Beatriz Almeida Lima</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pedro Lima Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gabriel Pereira Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pedro Miranda Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira Lima</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Laura Castro Miranda</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Camila Souza Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Maria Miranda Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pedro Costa Martins</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Gabriel Cardoso Rocha</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Eduardo Cardoso Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Maria Miranda Almeida</t>
         </is>
       </c>
     </row>
